--- a/www/IndicatorsPerCountry/Iraq_GDPperCapita_TerritorialRef_1946_2012_CCode_368.xlsx
+++ b/www/IndicatorsPerCountry/Iraq_GDPperCapita_TerritorialRef_1946_2012_CCode_368.xlsx
@@ -255,13 +255,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Iraq_GDPperCapita_TerritorialRef_1946_2012_CCode_368.xlsx
+++ b/www/IndicatorsPerCountry/Iraq_GDPperCapita_TerritorialRef_1946_2012_CCode_368.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="89">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,196 +36,214 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>588</t>
+    <t>877</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>719</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>1364</t>
-  </si>
-  <si>
-    <t>1445</t>
-  </si>
-  <si>
-    <t>1557</t>
-  </si>
-  <si>
-    <t>2129</t>
-  </si>
-  <si>
-    <t>2463</t>
-  </si>
-  <si>
-    <t>2298</t>
-  </si>
-  <si>
-    <t>2389</t>
-  </si>
-  <si>
-    <t>2300</t>
-  </si>
-  <si>
-    <t>2493</t>
-  </si>
-  <si>
-    <t>2523</t>
-  </si>
-  <si>
-    <t>2735</t>
-  </si>
-  <si>
-    <t>2961</t>
-  </si>
-  <si>
-    <t>3017</t>
-  </si>
-  <si>
-    <t>2872</t>
-  </si>
-  <si>
-    <t>3115</t>
-  </si>
-  <si>
-    <t>3288</t>
-  </si>
-  <si>
-    <t>3349</t>
-  </si>
-  <si>
-    <t>3164</t>
-  </si>
-  <si>
-    <t>3604</t>
-  </si>
-  <si>
-    <t>3473</t>
-  </si>
-  <si>
-    <t>3567</t>
-  </si>
-  <si>
-    <t>3323</t>
-  </si>
-  <si>
-    <t>3753</t>
-  </si>
-  <si>
-    <t>3825</t>
-  </si>
-  <si>
-    <t>4315</t>
-  </si>
-  <si>
-    <t>5023</t>
-  </si>
-  <si>
-    <t>4992</t>
-  </si>
-  <si>
-    <t>5693</t>
-  </si>
-  <si>
-    <t>6756</t>
-  </si>
-  <si>
-    <t>6377</t>
-  </si>
-  <si>
-    <t>5041</t>
-  </si>
-  <si>
-    <t>4833</t>
-  </si>
-  <si>
-    <t>4269</t>
-  </si>
-  <si>
-    <t>4136</t>
-  </si>
-  <si>
-    <t>3932</t>
-  </si>
-  <si>
-    <t>3759</t>
-  </si>
-  <si>
-    <t>3797</t>
-  </si>
-  <si>
-    <t>2908</t>
-  </si>
-  <si>
-    <t>2571</t>
-  </si>
-  <si>
-    <t>2458.43603699</t>
-  </si>
-  <si>
-    <t>946.657310911</t>
-  </si>
-  <si>
-    <t>1196.32426622</t>
-  </si>
-  <si>
-    <t>1161.02887406</t>
-  </si>
-  <si>
-    <t>1070.39369888</t>
-  </si>
-  <si>
-    <t>944.629137834</t>
-  </si>
-  <si>
-    <t>1031.58794809</t>
-  </si>
-  <si>
-    <t>962.492815961</t>
-  </si>
-  <si>
-    <t>1074.61450489</t>
-  </si>
-  <si>
-    <t>1132.4963537</t>
-  </si>
-  <si>
-    <t>1221.39101493</t>
-  </si>
-  <si>
-    <t>1293.94027856</t>
-  </si>
-  <si>
-    <t>1345.87152026</t>
-  </si>
-  <si>
-    <t>1023.43055746</t>
-  </si>
-  <si>
-    <t>1516.23720382</t>
-  </si>
-  <si>
-    <t>1464.87508118</t>
-  </si>
-  <si>
-    <t>1514.47430239</t>
-  </si>
-  <si>
-    <t>1497.03170246</t>
-  </si>
-  <si>
-    <t>1597.5016712</t>
-  </si>
-  <si>
-    <t>1602.60916924</t>
-  </si>
-  <si>
-    <t>1609.74796556</t>
+    <t>956</t>
+  </si>
+  <si>
+    <t>1275</t>
+  </si>
+  <si>
+    <t>2174</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2482</t>
+  </si>
+  <si>
+    <t>3394</t>
+  </si>
+  <si>
+    <t>3926</t>
+  </si>
+  <si>
+    <t>3663</t>
+  </si>
+  <si>
+    <t>3808</t>
+  </si>
+  <si>
+    <t>3666</t>
+  </si>
+  <si>
+    <t>3974</t>
+  </si>
+  <si>
+    <t>4022</t>
+  </si>
+  <si>
+    <t>4360</t>
+  </si>
+  <si>
+    <t>4720</t>
+  </si>
+  <si>
+    <t>4809</t>
+  </si>
+  <si>
+    <t>4578</t>
+  </si>
+  <si>
+    <t>4965</t>
+  </si>
+  <si>
+    <t>5241</t>
+  </si>
+  <si>
+    <t>5338</t>
+  </si>
+  <si>
+    <t>5043</t>
+  </si>
+  <si>
+    <t>5745</t>
+  </si>
+  <si>
+    <t>5536</t>
+  </si>
+  <si>
+    <t>5686</t>
+  </si>
+  <si>
+    <t>5297</t>
+  </si>
+  <si>
+    <t>5982</t>
+  </si>
+  <si>
+    <t>6097</t>
+  </si>
+  <si>
+    <t>6878</t>
+  </si>
+  <si>
+    <t>8007</t>
+  </si>
+  <si>
+    <t>7957</t>
+  </si>
+  <si>
+    <t>9075</t>
+  </si>
+  <si>
+    <t>10769</t>
+  </si>
+  <si>
+    <t>10165</t>
+  </si>
+  <si>
+    <t>8035</t>
+  </si>
+  <si>
+    <t>7704</t>
+  </si>
+  <si>
+    <t>6805</t>
+  </si>
+  <si>
+    <t>6593</t>
+  </si>
+  <si>
+    <t>6268</t>
+  </si>
+  <si>
+    <t>5992</t>
+  </si>
+  <si>
+    <t>6052</t>
+  </si>
+  <si>
+    <t>4635</t>
+  </si>
+  <si>
+    <t>4098</t>
+  </si>
+  <si>
+    <t>3918</t>
+  </si>
+  <si>
+    <t>1518.74208278481</t>
+  </si>
+  <si>
+    <t>2046.18088439654</t>
+  </si>
+  <si>
+    <t>2132.38232470176</t>
+  </si>
+  <si>
+    <t>2108.53800593898</t>
+  </si>
+  <si>
+    <t>1996.9277996571</t>
+  </si>
+  <si>
+    <t>2337.52265340147</t>
+  </si>
+  <si>
+    <t>2337.94787905627</t>
+  </si>
+  <si>
+    <t>2794.7864918705</t>
+  </si>
+  <si>
+    <t>3157.11246136115</t>
+  </si>
+  <si>
+    <t>3649.49294748339</t>
+  </si>
+  <si>
+    <t>4147.64851953066</t>
+  </si>
+  <si>
+    <t>4631.65253834669</t>
+  </si>
+  <si>
+    <t>3782.45263801471</t>
+  </si>
+  <si>
+    <t>6061.55461844611</t>
+  </si>
+  <si>
+    <t>6441.41021617748</t>
+  </si>
+  <si>
+    <t>7117.61350547781</t>
+  </si>
+  <si>
+    <t>7587.60567342558</t>
+  </si>
+  <si>
+    <t>8587.26471999696</t>
+  </si>
+  <si>
+    <t>9268.7091555216</t>
+  </si>
+  <si>
+    <t>10274.3303048734</t>
+  </si>
+  <si>
+    <t>11484</t>
+  </si>
+  <si>
+    <t>12652</t>
+  </si>
+  <si>
+    <t>13158</t>
+  </si>
+  <si>
+    <t>12817</t>
+  </si>
+  <si>
+    <t>13014</t>
+  </si>
+  <si>
+    <t>13898</t>
   </si>
   <si>
     <t>Description</t>
@@ -3576,6 +3594,108 @@
         <v>70</v>
       </c>
     </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>368.0</v>
+      </c>
+      <c r="B193" t="s">
+        <v>5</v>
+      </c>
+      <c r="C193" t="s">
+        <v>6</v>
+      </c>
+      <c r="D193" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E193" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>368.0</v>
+      </c>
+      <c r="B194" t="s">
+        <v>5</v>
+      </c>
+      <c r="C194" t="s">
+        <v>6</v>
+      </c>
+      <c r="D194" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E194" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>368.0</v>
+      </c>
+      <c r="B195" t="s">
+        <v>5</v>
+      </c>
+      <c r="C195" t="s">
+        <v>6</v>
+      </c>
+      <c r="D195" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E195" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>368.0</v>
+      </c>
+      <c r="B196" t="s">
+        <v>5</v>
+      </c>
+      <c r="C196" t="s">
+        <v>6</v>
+      </c>
+      <c r="D196" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E196" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>368.0</v>
+      </c>
+      <c r="B197" t="s">
+        <v>5</v>
+      </c>
+      <c r="C197" t="s">
+        <v>6</v>
+      </c>
+      <c r="D197" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E197" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>368.0</v>
+      </c>
+      <c r="B198" t="s">
+        <v>5</v>
+      </c>
+      <c r="C198" t="s">
+        <v>6</v>
+      </c>
+      <c r="D198" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E198" t="s">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -3591,50 +3711,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
